--- a/biology/Médecine/Radiopharmacie/Radiopharmacie.xlsx
+++ b/biology/Médecine/Radiopharmacie/Radiopharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiopharmacie est une activité de pharmacie hospitalière publique ou privée qui se déroule au sein du service de médecine nucléaire.
 Le terme de radiopharmacie regroupe l’ensemble des moyens humains et matériels nécessaires à l’exercice de cette activité, qui utilise des sources radioactives non scellées pour la préparation de médicaments radiopharmaceutiques (MRP) utilisés en médecine nucléaire.
@@ -519,7 +531,9 @@
           <t>Les médicaments radiopharmaceutiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les médicaments radiopharmaceutiques utilisés dans les services de médecine nucléaire sont des médicaments contenant des radioéléments artificiels (REA), appelés radionucléides, employés à des fins diagnostiques ou thérapeutiques.
 Les radionucléides peuvent être utilisés : soit sous forme chimique très simple, soit liés à des vecteurs spécifiques d’un organe, d’une fonction physiologique ou d’une pathologie : molécules organiques, analogues de molécules biologiques, anticorps monoclonaux, particules (colloïdes, macro agrégats), cellules sanguines, etc.
@@ -559,7 +573,9 @@
           <t>Principe de marquage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les médicaments radiopharmaceutiques peuvent être des radionucléides utilisés seuls sous une forme chimique simple (exemples : 123I−, 131I−, 201Tl+, 99mTcO4−,...).
 Mais le plus souvent, il s’agit de préparations au sein desquelles le radionucléide est associé à un vecteur ayant un tropisme particulier pour un organe, une fonction physiologique ou une pathologie.
@@ -595,16 +611,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radionucléides
-Les radionucléides peuvent être formés au cours de réactions nucléaires produites, soit dans un réacteur nucléaire, soit dans un accélérateur de particules (cyclotron par exemple). 
+          <t>Radionucléides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les radionucléides peuvent être formés au cours de réactions nucléaires produites, soit dans un réacteur nucléaire, soit dans un accélérateur de particules (cyclotron par exemple). 
 Les produits de réacteurs sont obtenus par fission (99Mo) ou par bombardement neutronique d’une cible (131I, 125I, 32P). 
 Les produits de cyclotron sont obtenus après bombardement par des particules chargées (201Tl).
 Les REA[Quoi ?] peuvent aussi provenir de générateurs (générateur de 99Mo/99mTc). Le radionucléide parent est un produit de réacteur ou de cyclotron qui se désintègre en donnant un élément fils de période physique plus courte que la sienne.
 Le radionucléide fils est ensuite obtenu par élution du générateur au sein du service, au moment des besoins.
-Molécules vectrices
-Ces molécules peuvent être de nature très diverse : anticorps monoclonaux, particules (colloïdes, macroagrégats), cellules sanguines, etc.
-Les molécules vectrices sont commercialisées sous forme de trousses, correspondant à un ensemble de réactifs stériles, apyrogènes et pré-conditionnés capable de donner, après radiomarquage par le radionucléide choisi, le médicament radiopharmaceutique souhaité.
-Elles se présentent le plus souvent sous forme de flacons sous azote, contenant un lyophilisat.
 </t>
         </is>
       </c>
@@ -630,10 +647,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Obtention et présentation des matières premières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Molécules vectrices</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces molécules peuvent être de nature très diverse : anticorps monoclonaux, particules (colloïdes, macroagrégats), cellules sanguines, etc.
+Les molécules vectrices sont commercialisées sous forme de trousses, correspondant à un ensemble de réactifs stériles, apyrogènes et pré-conditionnés capable de donner, après radiomarquage par le radionucléide choisi, le médicament radiopharmaceutique souhaité.
+Elles se présentent le plus souvent sous forme de flacons sous azote, contenant un lyophilisat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Cas particuliers des trousses marquées au 99mTc</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La préparation des trousses technétiées consiste en une réaction de réduction suivie d’une réaction de complexation avec les différents réactifs. 
 L’éluat issu du générateur de 99Mo/99mTc se présente sous forme de pertechnétate de sodium (99mTcO4− Na+) à l’état d’oxydation +VII.
@@ -646,95 +704,373 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Critères de choix d’un médicament radiopharmaceutique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Critères de choix liés au radionucléide
-Nature du rayonnement
-En fonction de l’utilisation (diagnostique ou thérapeutique) du médicament radiopharmaceutique, le choix se fait entre :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critères de choix liés au radionucléide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nature du rayonnement</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fonction de l’utilisation (diagnostique ou thérapeutique) du médicament radiopharmaceutique, le choix se fait entre :
 des radionucléides émettant principalement des rayonnements γ (détection externe permettant des explorations fonctionnelles),
 ou des radionucléides émettant principalement des rayonnements β− voir ɑ (irradiation localisée pour la thérapeutique).
 Pour un usage diagnostique, les émetteurs γ purs (sans émission β− associée) sont préférables pour la radioprotection du patient.
-Énergie du rayonnement
-Le radionucléide doit posséder une énergie :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critères de choix liés au radionucléide</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Énergie du rayonnement</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le radionucléide doit posséder une énergie :
 suffisamment importante (&gt; 20 keV) pour ne pas être absorbée par les tissus et permettre la détection des lésions ou organes profonds,
 pas trop grande (&lt; 600 keV) pour permettre une détection optimale.
 L’énergie, pour être adaptée aux gamma-caméras, doit être idéalement comprise entre 100 et 300 keV.
-Période physique
-Pour être utilisables en Médecine Nucléaire, les radiodionucléides doivent avoir une période physique suffisamment longue pour permettre une exploration correcte d’un organe ou l’étude d’un métabolisme mais aussi suffisamment courte pour ne pas entraîner une irradiation excessive du patient, inutile et nuisible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critères de choix liés au radionucléide</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Période physique</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour être utilisables en Médecine Nucléaire, les radiodionucléides doivent avoir une période physique suffisamment longue pour permettre une exploration correcte d’un organe ou l’étude d’un métabolisme mais aussi suffisamment courte pour ne pas entraîner une irradiation excessive du patient, inutile et nuisible.
 Les périodes physiques des radionucléides les plus couramment utilisés en Médecine Nucléaire vont de quelques heures à quelques jours.
-Autres critères
-Les radionucléides doivent avoir une radioactivité spécifique élevée, être obtenus les plus purs possible, être facilement disponibles et peu onéreux.
-Critères de choix liés à la molécule vectrice et au médicament radiopharmaceutique
-Notion d’organe cible
-Ce sont les propriétés biologiques du vecteur (trousse) qui conditionnent les propriétés pharmacocinétiques du médicament radiopharmaceutique et sa spécificité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critères de choix liés au radionucléide</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres critères</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les radionucléides doivent avoir une radioactivité spécifique élevée, être obtenus les plus purs possible, être facilement disponibles et peu onéreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Critères de choix liés à la molécule vectrice et au médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Notion d’organe cible</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les propriétés biologiques du vecteur (trousse) qui conditionnent les propriétés pharmacocinétiques du médicament radiopharmaceutique et sa spécificité.
 En effet, en fonction de la molécule vectrice utilisée, le médicament radiopharmaceutique aura un certain tropisme pour un organe à visualiser (diagnostique) ou à atteindre (thérapeutique).
-Période biologique et période effective
-La période biologique Tb est définie comme le temps nécessaire pour que l’organisme élimine la moitié des atomes ou molécules administrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Critères de choix liés à la molécule vectrice et au médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Période biologique et période effective</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période biologique Tb est définie comme le temps nécessaire pour que l’organisme élimine la moitié des atomes ou molécules administrées.
 La période effective Te est définie comme le temps nécessaire pour que la radioactivité dans l’organisme diminue de moitié. Elle prend en compte la décroissance physique du radionucléide et son élimination biologique. Elle intègre donc la période physique (Tp) et la période biologique :
 1/Te = 1/Tp + 1/Tb
 Ainsi, la période physique longue d’un radionucléide peut être compensée par la période biologique courte du médicament radiopharmaceutique.
 Pour réaliser une exploration fonctionnelle, il est souhaitable que le médicament radiopharmaceutique administré ne soit pas éliminé avant la fin de l’examen mais ne stagne pas trop longtemps dans l’organisme en raison de l’irradiation qu’il provoque. Des périodes effectives de l’ordre de quelques jours maximums sont raisonnables.
-Autres critères
-Modalités de préparation (rapide, aisée...) dépendant de la facilité ou non d’incorporation du marqueur à la molécule vectrice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Critères de choix d’un médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Critères de choix liés à la molécule vectrice et au médicament radiopharmaceutique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres critères</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Modalités de préparation (rapide, aisée...) dépendant de la facilité ou non d’incorporation du marqueur à la molécule vectrice.
 Fiabilité et faisabilité du contrôle du marquage.
 Stabilité du marquage, compatible avec le temps nécessaire à la réalisation de l’examen scintigraphique.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Imagerie et médecine nucléaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Exemples de caméra TEP/TDM (1) et TEMP/TDM (2)  et d’images TEP (3)  et TEMP (4).
-Les actes diagnostiques (explorations scintigraphiques)
-La majorité des médicaments radiopharmaceutiques est utilisée pour la réalisation de scintigraphies, permettant des explorations morphologiques et fonctionnelles de tout organe ou tissu. La plupart des organes peuvent faire l’objet d’une exploration scintigraphique (squelette, cœur, poumons, cerveau, thyroïde, reins…) ainsi que certaines pathologies (infections, tumeurs…)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Imagerie et médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les actes diagnostiques (explorations scintigraphiques)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>La majorité des médicaments radiopharmaceutiques est utilisée pour la réalisation de scintigraphies, permettant des explorations morphologiques et fonctionnelles de tout organe ou tissu. La plupart des organes peuvent faire l’objet d’une exploration scintigraphique (squelette, cœur, poumons, cerveau, thyroïde, reins…) ainsi que certaines pathologies (infections, tumeurs…)
 Ces scintigraphies utilisent des émetteurs de rayonnements γ ou des émetteurs de rayonnements β et γ dont l’énergie d’émission γ est habituellement comprise entre 70 et 511 KeV.
 On distingue :
 La tomographie par émission monophotonique (TEMP).
@@ -744,15 +1080,49 @@
 Le (18F]-fluorodésoxyglucose (18FDG), le plus utilisé, est le premier à avoir obtenu une AMM en France, en 1998. La TEP au 18FDG est un examen essentiel en oncologie pour le diagnostic et le suivi de certains cancers, pour la recherche de récidives et métastases ainsi que pour l’évaluation de la réponse à un traitement spécifique. Elle présente également une utilité clinique en neurologie et cardiologie. Les autres médicaments commercialisés sont :
 La [18F]-fluoroDOPA, indiquée en neurologie pour le diagnostic différentiel de la maladie de Parkinson au sein des syndromes extrapyramidaux ; et en oncologie (tumeurs neuroendocriniennes).
 La [18F]-choline, indiquée en oncologie (cancer de la prostate, carcinome hépatocellulaire).
-Le [18F]-Na est utilisé pour l’étude fonctionnelle des pathologies, structures osseuses notamment en oncologie (métastases osseuses des cancers de la prostate, du sein ou du poumon).
-Les actes thérapeutiques
-D’autres médicaments radiopharmaceutiques sont indiqués en thérapie, par exemple dans le traitement des pathologies thyroïdiennes par l’iode 131 (hyperthyroïdie, cancer).
+Le [18F]-Na est utilisé pour l’étude fonctionnelle des pathologies, structures osseuses notamment en oncologie (métastases osseuses des cancers de la prostate, du sein ou du poumon).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Imagerie et médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les actes thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’autres médicaments radiopharmaceutiques sont indiqués en thérapie, par exemple dans le traitement des pathologies thyroïdiennes par l’iode 131 (hyperthyroïdie, cancer).
 La radiothérapie interne consiste à administrer un médicament radiopharmaceutique qui va se fixer dans le tissu ou l’organe qu’il doit sélectivement irradier, entraînant le blocage des processus de division cellulaire puis la mort cellulaire. 
 La radioimmunothérapie utilise un MRP constitué d’un anticorps monoclonal sur lequel est fixé un radionucléide à visée thérapeutique.
 La radiothérapie utilise des radionucléides de haute énergie (de l’ordre du MeV) émetteurs β− (Iode 131, Samarium 153, Strontium 89, Yttrium 90). Certains radionucléides comme l’Iode 131 ou le Samarium 153 émettent, en plus, des rayonnements γ. Après administration de fortes activités d’Iode 131 (supérieures à 740 MBq), l’hospitalisation et l’isolement du patient en chambre radioprotégée sont nécessaires.
 Les principales indications de la radiothérapie interne sont :
 Les pathologies thyroïdiennes comme l’hyperthyroïdie, les cancers différenciés par administration d’Iode 131.
-Le traitement palliatif des douleurs dues aux métastases osseuses ostéoblastiques (cancer du sein ou de la prostate) par du lexidronam marqué au samarium 153 (Quadramet[1]), du chlorure de strontium 89 (Metastron[2]), ou du dichlorure de radium 223 (Xofigo[3]).
+Le traitement palliatif des douleurs dues aux métastases osseuses ostéoblastiques (cancer du sein ou de la prostate) par du lexidronam marqué au samarium 153 (Quadramet), du chlorure de strontium 89 (Metastron), ou du dichlorure de radium 223 (Xofigo).
 Les carcinomes hépatocellulaires et les métastases hépatiques à l’aide microsphères radiomarquées à l’Yttrium 90.
 Les tumeurs neuroendocrines (phéochromocytomes malins, neuroblastomes de l’enfant, tumeurs carcinoïdes) avec l’iobenguane-131I (MIBG-131I).
 Les affections hématologiques tels que certains lymphomes non hodgkiniens par radioimmunothérapie avec administration d’un anticorps monoclonal anti-CD20 marqué à l’Yttrium 90.
@@ -762,76 +1132,409 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Cadre juridique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan juridique, les médicaments radiopharmaceutiques, à visée thérapeutique ou diagnostique, livrés prêts à l’emploi ou préparés sur place, sont intégrés dans toutes les dispositions régulant l’utilisation des radionucléides et des médicaments.
 Vous trouverez ci-dessous les liens des principaux textes de lois concernant ces médicaments.
-Cadre juridique relatif au médicament
-L’encadrement réglementaire doit prendre en compte les normes relatives aux pratiques pharmaceutiques (hygiène, etc.) mais aussi la réglementation propre aux radionucléides.
-Textes Communautaires
-Les Directives EURATOM relatives à la protection radiologique des personnes soumises à des examens et traitements médicaux et à celle des populations et travailleurs contre les dangers résultants des rayonnements ionisants.
-[1]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif au médicament</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’encadrement réglementaire doit prendre en compte les normes relatives aux pratiques pharmaceutiques (hygiène, etc.) mais aussi la réglementation propre aux radionucléides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif au médicament</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Textes Communautaires</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Directives EURATOM relatives à la protection radiologique des personnes soumises à des examens et traitements médicaux et à celle des populations et travailleurs contre les dangers résultants des rayonnements ionisants.
 Directive 65/65/CEE du 26 janvier 1965 (JOCE 09/02/1965). on entend par médicament « toute substance ou composition pouvant être utilisée chez l’homme ou chez l’animal ou pouvant leur être administrée, en vue d’établir un diagnostic médical ou de restaurer, corriger ou modifier leurs fonctions physiologiques en  exerçant une action pharmacologique, immunologique ou métabolique ».
-[2]
 Directive du conseil no 89/343/CEE du 3 mai 1989 (JOCE du 25 mai 1989) qui a élargi le champ d’application des directives 65/65/CEE (modifiée par la directive 83/570/CEE) relatives aux spécialités pharmaceutiques.
-[3]
 La Directive du conseil no 91/507/CEE qui a élargi le champ d’application de la directive 75/318/CEE (modifiée par la directive 87/19/CEE) relative aux spécialités pharmaceutiques.
-[4]
-En France
-Loi no 92-1279 du 8 décembre 1992
-Ces textes communautaires ont été transposés dans la loi no 92-1279 du 8 décembre 1992 (J.O. du 11.12.1992). [5]
-Ordonnance n°2016-1729 du 15 décembre 2016 relative aux pharmacies à usage intérieur [6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif au médicament</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loi no 92-1279 du 8 décembre 1992
+Ces textes communautaires ont été transposés dans la loi no 92-1279 du 8 décembre 1992 (J.O. du 11.12.1992). 
+Ordonnance n°2016-1729 du 15 décembre 2016 relative aux pharmacies à usage intérieur 
 Décret no 2000-1316 du 26 décembre 2000 modifié
-Certaines dispositions  ont été précisées par le décret no 2000-1316 du 26 décembre 2000 relatif aux pharmacies à usage intérieur et modifiant le CSP (JO du 30 décembre 2000).[7]
+Certaines dispositions  ont été précisées par le décret no 2000-1316 du 26 décembre 2000 relatif aux pharmacies à usage intérieur et modifiant le CSP (JO du 30 décembre 2000).
 Compétences du pharmacien
-L’exercice de la radiopharmacie nécessite l’obtention du Diplôme d’Études Spécialisées Complémentaires (D.E.S.C.) de Radiopharmacie et Radiobiologie (ou équivalent), qualification réglementaire exigée à compter du 31 décembre 2005 (Arrêté du 1er décembre 2003 relatif aux qualifications et à la formation des pharmaciens utilisant des MRP dans les établissements de santé et les syndicats interhospitaliers – JO du 30 janvier 2004). [8]
+L’exercice de la radiopharmacie nécessite l’obtention du Diplôme d’Études Spécialisées Complémentaires (D.E.S.C.) de Radiopharmacie et Radiobiologie (ou équivalent), qualification réglementaire exigée à compter du 31 décembre 2005 (Arrêté du 1er décembre 2003 relatif aux qualifications et à la formation des pharmaciens utilisant des MRP dans les établissements de santé et les syndicats interhospitaliers – JO du 30 janvier 2004). 
 Préparation radiopharmaceutique
 Les textes de référence sont :
-Les Bonnes Pratiques de Pharmacie Hospitalière (2001) [9]
+Les Bonnes Pratiques de Pharmacie Hospitalière (2001) 
 Les Bonnes Pratiques de Préparation (2023)
-Les Bonnes Pratiques de Fabrication (2014) [10]
-Cadre juridique relatif aux médicaments dérivés du sang (MDS)
-Les médicaments radiopharmaceutiques contenant de l’albumine humaine doivent faire l’objet d’une traçabilité au même titre que tout MDS (Art. 5121-181 à R.5121-201 du CSP)
-Cadre juridique relatif aux médicaments radiopharmaceutiques expérimentaux
-Les médicaments radiopharmaceutiques utilisés dans le cadre de recherches biomédicales doivent répondre à la fois à la législation relative aux médicaments expérimentaux (loi n°2004-806 du 9 août 2004 relative à la politique de santé publique – articles 88 à 97 – JO du 11 août 2004) et à celle relative aux radionucléides.
+Les Bonnes Pratiques de Fabrication (2014) </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux médicaments dérivés du sang (MDS)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les médicaments radiopharmaceutiques contenant de l’albumine humaine doivent faire l’objet d’une traçabilité au même titre que tout MDS (Art. 5121-181 à R.5121-201 du CSP)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux médicaments radiopharmaceutiques expérimentaux</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les médicaments radiopharmaceutiques utilisés dans le cadre de recherches biomédicales doivent répondre à la fois à la législation relative aux médicaments expérimentaux (loi n°2004-806 du 9 août 2004 relative à la politique de santé publique – articles 88 à 97 – JO du 11 août 2004) et à celle relative aux radionucléides.
 Pour la réalisation des préparations rendues nécessaires par les recherches biomédicales, y compris la préparation des médicaments expérimentaux, la PUI doit avoir obtenu l’autorisation de l’ARS (délivrée sous réserve de disposer des moyens en locaux, personnel équipements et systèmes d’informations nécessaires). Cette autorisation précise également la forme pharmaceutique ou, à défaut, la nature des produits et, dans le cas de la préparation, les opérations réalisées (Art. R. 5126-9 et R.5126-16 du CSP).
-Cadre juridique relatif aux radionucléides
-Activité nucléaire et régimes d’autorisations
-L’activité de radiopharmacie nécessite :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux radionucléides</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Activité nucléaire et régimes d’autorisations</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>L’activité de radiopharmacie nécessite :
 L’autorisation de la PUI à réaliser la préparation de médicaments radiopharmaceutiques (Art. R5126-9 du CSP).
-L’autorisation pour l’utilisation et la détention en vue de leur utilisation de radionucléides ou produits ou dispositifs en contenant, à des fins médicales ou de recherche biomédicale étant soumises à un régime d’autorisation (Art. R.1333-24 du CSP).
-La gestion des déchets radioactifs
-Les principaux textes relatifs à la gestion des déchets sont :
-La circulaire DGS/DHOS n°2001-323 du 9 juillet 2001. [11]
-La décision n°2008-DC-0095 de l’ASN du 29 janvier 2008. [12]
-Locaux et équipements
-Les locaux techniques d’une unité de radiopharmacie doivent répondre aux exigences de l’Arrêté du 30 octobre 1981 et des Bonnes Pratiques de Préparations. [13]
-Traçabilité et sécurisation
-Le stockage, la préparation, la validation, la dispensation et l'administration doivent être tracés et historisés dans des registres afin de garantir les contrôles réglementaires. Des logiciels (Venus/Nicesoft, etc.) spécialisés permettent d'établir ces registres et de fournir les rapports pour les audits de contrôles. [14]
+L’autorisation pour l’utilisation et la détention en vue de leur utilisation de radionucléides ou produits ou dispositifs en contenant, à des fins médicales ou de recherche biomédicale étant soumises à un régime d’autorisation (Art. R.1333-24 du CSP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux radionucléides</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>La gestion des déchets radioactifs</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux textes relatifs à la gestion des déchets sont :
+La circulaire DGS/DHOS n°2001-323 du 9 juillet 2001. 
+La décision n°2008-DC-0095 de l’ASN du 29 janvier 2008. </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux radionucléides</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Locaux et équipements</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les locaux techniques d’une unité de radiopharmacie doivent répondre aux exigences de l’Arrêté du 30 octobre 1981 et des Bonnes Pratiques de Préparations. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiopharmacie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cadre juridique</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cadre juridique relatif aux radionucléides</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Traçabilité et sécurisation</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stockage, la préparation, la validation, la dispensation et l'administration doivent être tracés et historisés dans des registres afin de garantir les contrôles réglementaires. Des logiciels (Venus/Nicesoft, etc.) spécialisés permettent d'établir ces registres et de fournir les rapports pour les audits de contrôles. 
 </t>
         </is>
       </c>
